--- a/simulation/python/Book1_copy_5.xlsx
+++ b/simulation/python/Book1_copy_5.xlsx
@@ -120,7 +120,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -198,7 +198,7 @@
         <v>235</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>5</v>
@@ -207,7 +207,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -215,7 +215,7 @@
         <v>235</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
@@ -224,7 +224,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
